--- a/任务及绩效评价/SE2019春-G11-第十二周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第十二周任务以及绩效评价.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>绩效评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,23 +66,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翻转ppt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十一周任务清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善详细设计报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余模块的详细设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递代寄功能实现</t>
+  </si>
+  <si>
+    <t>其他功能测试</t>
+  </si>
+  <si>
+    <t>餐饮代买功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮代买功能实现</t>
+  </si>
+  <si>
+    <t>其他功能实现</t>
+  </si>
+  <si>
+    <t>快递代寄功能测试</t>
+  </si>
+  <si>
+    <t>第十二周任务清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +148,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" activeCellId="1" sqref="I7 M9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,7 +545,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -556,8 +581,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -571,14 +596,14 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -592,63 +617,105 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="5"/>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="8"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="5"/>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
